--- a/data/trans_camb/P12_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 0,94</t>
+          <t>-7,59; 0,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 2,23</t>
+          <t>-6,52; 2,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 2,2</t>
+          <t>-6,78; 2,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,85; -1,9</t>
+          <t>-9,57; -1,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 0,79</t>
+          <t>-7,54; 0,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,93; -2,37</t>
+          <t>-9,65; -2,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,68; -1,87</t>
+          <t>-7,33; -1,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 0,2</t>
+          <t>-5,76; 0,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,31; -1,31</t>
+          <t>-6,88; -0,83</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 3,14</t>
+          <t>-23,17; 3,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 7,62</t>
+          <t>-19,87; 8,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,6; 7,76</t>
+          <t>-20,69; 9,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,88; -4,89</t>
+          <t>-21,98; -4,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,51; 2,01</t>
+          <t>-17,34; 1,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,85; -5,99</t>
+          <t>-22,44; -5,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,95; -5,23</t>
+          <t>-19,25; -5,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 0,52</t>
+          <t>-15,17; 1,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,09; -3,48</t>
+          <t>-17,85; -2,08</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 1,65</t>
+          <t>-3,25; 1,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 0,24</t>
+          <t>-4,35; 0,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 2,4</t>
+          <t>-2,37; 2,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 1,68</t>
+          <t>-4,37; 1,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,63; -2,1</t>
+          <t>-7,72; -2,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 0,02</t>
+          <t>-6,06; 0,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 0,74</t>
+          <t>-3,06; 0,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,17; -1,74</t>
+          <t>-5,1; -1,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 0,86</t>
+          <t>-2,99; 0,79</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,86; 12,43</t>
+          <t>-20,79; 12,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 1,61</t>
+          <t>-28,09; 2,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 18,34</t>
+          <t>-16,0; 18,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 8,4</t>
+          <t>-19,09; 5,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,2; -10,3</t>
+          <t>-32,97; -11,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,43; -0,08</t>
+          <t>-27,15; 1,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 4,43</t>
+          <t>-16,59; 4,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,93; -10,37</t>
+          <t>-27,34; -9,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,61; 5,31</t>
+          <t>-16,17; 4,63</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 3,15</t>
+          <t>-6,23; 2,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 0,66</t>
+          <t>-8,22; 0,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 5,13</t>
+          <t>-3,03; 5,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,86; -1,91</t>
+          <t>-12,3; -1,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,49; -4,77</t>
+          <t>-15,13; -4,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,64; -0,74</t>
+          <t>-10,71; -0,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,9; -0,81</t>
+          <t>-8,16; -1,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,12; -3,29</t>
+          <t>-9,84; -3,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 1,29</t>
+          <t>-5,1; 1,24</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,8; 24,22</t>
+          <t>-35,87; 22,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,12; 5,36</t>
+          <t>-46,07; 3,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 38,45</t>
+          <t>-17,9; 40,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-47,59; -9,05</t>
+          <t>-46,2; -6,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,56; -22,24</t>
+          <t>-55,0; -22,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,79; -2,68</t>
+          <t>-37,69; -2,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,47; -4,2</t>
+          <t>-38,5; -6,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,02; -18,5</t>
+          <t>-45,89; -19,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 6,99</t>
+          <t>-24,04; 7,17</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,15; -0,18</t>
+          <t>-4,17; -0,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,77; -2,08</t>
+          <t>-5,74; -2,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,64; -0,81</t>
+          <t>-4,63; -0,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,58; -2,05</t>
+          <t>-6,41; -1,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,42; -5,15</t>
+          <t>-9,57; -5,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -5,05</t>
+          <t>-9,61; -5,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,61; -1,57</t>
+          <t>-4,58; -1,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,04; -4,18</t>
+          <t>-7,08; -4,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,42; -3,3</t>
+          <t>-6,37; -3,27</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,3; -0,95</t>
+          <t>-20,38; -0,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,28; -11,12</t>
+          <t>-28,19; -11,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,38; -4,28</t>
+          <t>-22,76; -3,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,16; -6,93</t>
+          <t>-21,03; -6,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,86; -18,22</t>
+          <t>-31,1; -18,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,6; -17,65</t>
+          <t>-31,68; -17,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,23; -6,7</t>
+          <t>-18,16; -7,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,51; -17,34</t>
+          <t>-28,02; -17,94</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-25,33; -13,87</t>
+          <t>-25,0; -13,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 0,86</t>
+          <t>-7,32; 0,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 2,5</t>
+          <t>-6,38; 2,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 2,6</t>
+          <t>-7,02; 2,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,57; -1,68</t>
+          <t>-9,63; -1,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 0,57</t>
+          <t>-7,63; 0,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,65; -2,08</t>
+          <t>-9,96; -2,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,33; -1,8</t>
+          <t>-7,38; -1,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 0,6</t>
+          <t>-5,53; 0,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,88; -0,83</t>
+          <t>-7,07; -1,1</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 3,01</t>
+          <t>-22,44; 3,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,87; 8,68</t>
+          <t>-19,26; 7,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 9,12</t>
+          <t>-21,5; 9,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,98; -4,65</t>
+          <t>-22,16; -4,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 1,46</t>
+          <t>-17,68; 1,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,44; -5,25</t>
+          <t>-22,91; -5,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,25; -5,14</t>
+          <t>-19,6; -5,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 1,73</t>
+          <t>-14,72; 1,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-17,85; -2,08</t>
+          <t>-18,51; -3,08</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,59</t>
+          <t>-3,11; 1,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 0,2</t>
+          <t>-4,41; 0,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 2,37</t>
+          <t>-2,38; 2,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 1,15</t>
+          <t>-4,39; 1,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,72; -2,36</t>
+          <t>-7,49; -2,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 0,22</t>
+          <t>-5,72; 0,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 0,74</t>
+          <t>-3,05; 0,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,1; -1,62</t>
+          <t>-5,09; -1,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 0,79</t>
+          <t>-2,96; 0,78</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,79; 12,56</t>
+          <t>-20,55; 11,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,09; 2,16</t>
+          <t>-28,76; 0,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 18,95</t>
+          <t>-15,67; 18,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 5,91</t>
+          <t>-19,04; 7,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,97; -11,62</t>
+          <t>-32,6; -9,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,15; 1,15</t>
+          <t>-24,94; 0,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 4,41</t>
+          <t>-16,52; 2,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,34; -9,64</t>
+          <t>-27,66; -10,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 4,63</t>
+          <t>-16,16; 4,71</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 2,98</t>
+          <t>-6,53; 2,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 0,45</t>
+          <t>-7,57; 0,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 5,34</t>
+          <t>-3,35; 5,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,3; -1,43</t>
+          <t>-13,28; -2,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,13; -4,9</t>
+          <t>-15,3; -5,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,71; -0,56</t>
+          <t>-10,63; -1,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,16; -1,11</t>
+          <t>-8,19; -0,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,84; -3,54</t>
+          <t>-9,67; -2,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 1,24</t>
+          <t>-5,03; 1,08</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-35,87; 22,89</t>
+          <t>-37,08; 22,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,07; 3,92</t>
+          <t>-44,76; 4,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 40,75</t>
+          <t>-19,54; 40,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,2; -6,13</t>
+          <t>-48,34; -9,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,0; -22,95</t>
+          <t>-55,14; -22,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,69; -2,32</t>
+          <t>-38,16; -6,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,5; -6,11</t>
+          <t>-37,46; -3,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-45,89; -19,4</t>
+          <t>-45,21; -16,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 7,17</t>
+          <t>-23,69; 6,52</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,17; -0,1</t>
+          <t>-4,25; -0,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,74; -2,07</t>
+          <t>-5,82; -1,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,63; -0,77</t>
+          <t>-4,56; -0,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,41; -1,94</t>
+          <t>-6,52; -1,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,57; -5,27</t>
+          <t>-9,35; -5,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,61; -5,0</t>
+          <t>-9,7; -4,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,58; -1,69</t>
+          <t>-4,86; -1,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,08; -4,3</t>
+          <t>-7,1; -4,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,37; -3,27</t>
+          <t>-6,23; -3,31</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,38; -0,55</t>
+          <t>-20,82; -1,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,19; -11,33</t>
+          <t>-28,43; -10,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,76; -3,88</t>
+          <t>-22,13; -3,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,03; -6,98</t>
+          <t>-21,1; -6,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,1; -18,32</t>
+          <t>-30,67; -17,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,68; -17,47</t>
+          <t>-31,89; -17,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,16; -7,15</t>
+          <t>-18,8; -7,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-28,02; -17,94</t>
+          <t>-27,92; -17,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-25,0; -13,67</t>
+          <t>-24,65; -13,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tuvo mucha energía alguna vez o algunas veces</t>
+          <t>Población que refirió mucha energía alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 0,99</t>
+          <t>-7,22; 0,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 2,07</t>
+          <t>-6,42; 2,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 2,68</t>
+          <t>-6,74; 2,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,63; -1,78</t>
+          <t>-9,85; -1,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 0,71</t>
+          <t>-7,51; 0,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,96; -2,38</t>
+          <t>-9,93; -2,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,38; -1,81</t>
+          <t>-7,68; -1,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 0,41</t>
+          <t>-5,68; 0,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,07; -1,1</t>
+          <t>-7,31; -1,31</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,44; 3,59</t>
+          <t>-22,12; 3,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 7,13</t>
+          <t>-19,55; 7,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,5; 9,1</t>
+          <t>-20,6; 7,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,16; -4,5</t>
+          <t>-22,88; -4,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 1,76</t>
+          <t>-17,51; 2,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,91; -5,62</t>
+          <t>-22,85; -5,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,6; -5,37</t>
+          <t>-19,95; -5,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 1,15</t>
+          <t>-15,03; 0,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,51; -3,08</t>
+          <t>-19,09; -3,48</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 1,52</t>
+          <t>-3,05; 1,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 0,08</t>
+          <t>-4,31; 0,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,35</t>
+          <t>-2,36; 2,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 1,4</t>
+          <t>-4,13; 1,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,49; -2,0</t>
+          <t>-7,63; -2,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 0,23</t>
+          <t>-5,89; 0,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 0,49</t>
+          <t>-2,85; 0,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,09; -1,78</t>
+          <t>-5,17; -1,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,78</t>
+          <t>-3,25; 0,86</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,55; 11,77</t>
+          <t>-19,86; 12,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,76; 0,83</t>
+          <t>-28,27; 1,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 18,4</t>
+          <t>-15,29; 18,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 7,1</t>
+          <t>-18,65; 8,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,6; -9,93</t>
+          <t>-33,2; -10,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,94; 0,99</t>
+          <t>-26,43; -0,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 2,76</t>
+          <t>-15,53; 4,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,66; -10,51</t>
+          <t>-27,93; -10,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 4,71</t>
+          <t>-17,61; 5,31</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 2,79</t>
+          <t>-6,7; 3,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 0,55</t>
+          <t>-7,99; 0,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 5,35</t>
+          <t>-3,69; 5,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,28; -2,06</t>
+          <t>-12,86; -1,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,3; -5,13</t>
+          <t>-15,49; -4,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,63; -1,38</t>
+          <t>-10,64; -0,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,19; -0,83</t>
+          <t>-7,9; -0,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,67; -2,98</t>
+          <t>-10,12; -3,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 1,08</t>
+          <t>-5,1; 1,29</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,08; 22,53</t>
+          <t>-37,8; 24,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,76; 4,52</t>
+          <t>-45,12; 5,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 40,14</t>
+          <t>-19,99; 38,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,34; -9,48</t>
+          <t>-47,59; -9,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,14; -22,61</t>
+          <t>-55,56; -22,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,16; -6,04</t>
+          <t>-37,79; -2,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,46; -3,0</t>
+          <t>-36,47; -4,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-45,21; -16,72</t>
+          <t>-46,02; -18,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 6,52</t>
+          <t>-23,83; 6,99</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,25; -0,36</t>
+          <t>-4,15; -0,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,82; -1,93</t>
+          <t>-5,77; -2,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,56; -0,68</t>
+          <t>-4,64; -0,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,52; -1,98</t>
+          <t>-6,58; -2,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,35; -5,08</t>
+          <t>-9,42; -5,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -4,96</t>
+          <t>-9,7; -5,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,86; -1,9</t>
+          <t>-4,61; -1,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,1; -4,26</t>
+          <t>-7,04; -4,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,23; -3,31</t>
+          <t>-6,42; -3,3</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,82; -1,81</t>
+          <t>-20,3; -0,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,43; -10,45</t>
+          <t>-28,28; -11,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,13; -3,66</t>
+          <t>-22,38; -4,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,1; -6,99</t>
+          <t>-21,16; -6,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,67; -17,87</t>
+          <t>-30,86; -18,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,89; -17,49</t>
+          <t>-31,6; -17,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,8; -7,97</t>
+          <t>-18,23; -6,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,92; -17,78</t>
+          <t>-27,51; -17,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-24,65; -13,84</t>
+          <t>-25,33; -13,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,15</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,14</t>
+          <t>-4,06</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 2,2</t>
+          <t>-6,57; 2,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,93; -2,37</t>
+          <t>-9,86; -2,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,31; -1,31</t>
+          <t>-7,2; -1,1</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,49%</t>
+          <t>-6,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-14,82%</t>
+          <t>-14,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-11,25%</t>
+          <t>-11,02%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,6; 7,76</t>
+          <t>-20,68; 8,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,85; -5,99</t>
+          <t>-22,64; -5,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,09; -3,48</t>
+          <t>-18,93; -3,16</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,22 +873,22 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>-3,76</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,24</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-3,4</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>-2,43</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-1,24</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-3,4</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-1,03</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 2,4</t>
+          <t>-5,34; 1,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 0,02</t>
+          <t>-9,11; -0,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 0,86</t>
+          <t>-5,74; -0,06</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>-9,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-11,37%</t>
+          <t>-17,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-5,88%</t>
+          <t>-13,82%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 18,34</t>
+          <t>-34,8; 8,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,43; -0,08</t>
+          <t>-40,21; -4,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,61; 5,31</t>
+          <t>-30,71; -0,44</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,69</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-2,08</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 5,13</t>
+          <t>-3,7; 5,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,64; -0,74</t>
+          <t>-10,81; -0,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 1,29</t>
+          <t>-5,25; 1,11</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-23,11%</t>
+          <t>-23,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-9,98%</t>
+          <t>-10,59%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 38,45</t>
+          <t>-20,14; 39,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,79; -2,68</t>
+          <t>-38,1; -3,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 6,99</t>
+          <t>-24,41; 5,95</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,12</t>
+          <t>-8,14</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-5,94</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,64; -0,81</t>
+          <t>-7,17; -1,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -5,05</t>
+          <t>-11,99; -5,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,42; -3,3</t>
+          <t>-8,63; -4,1</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-13,9%</t>
+          <t>-19,23%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-23,99%</t>
+          <t>-27,44%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-19,56%</t>
+          <t>-24,1%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,38; -4,28</t>
+          <t>-37,25; -8,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,6; -17,65</t>
+          <t>-39,65; -19,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-25,33; -13,87</t>
+          <t>-34,51; -17,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 0,94</t>
+          <t>-7,4; 0,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 2,23</t>
+          <t>-6,22; 2,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 2,48</t>
+          <t>-6,57; 2,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,85; -1,9</t>
+          <t>-9,84; -2,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 0,79</t>
+          <t>-7,4; 1,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,86; -2,31</t>
+          <t>-9,63; -1,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,68; -1,87</t>
+          <t>-7,5; -1,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 0,2</t>
+          <t>-5,73; 0,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,2; -1,1</t>
+          <t>-6,89; -0,89</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 3,14</t>
+          <t>-23,02; 2,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 7,62</t>
+          <t>-19,39; 7,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,68; 8,48</t>
+          <t>-20,31; 10,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,88; -4,89</t>
+          <t>-22,7; -5,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,51; 2,01</t>
+          <t>-17,72; 2,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,64; -5,89</t>
+          <t>-22,27; -5,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,95; -5,23</t>
+          <t>-19,47; -5,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 0,52</t>
+          <t>-14,88; 1,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,93; -3,16</t>
+          <t>-17,98; -2,4</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 1,65</t>
+          <t>-3,34; 1,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 0,24</t>
+          <t>-4,34; 0,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 1,22</t>
+          <t>-5,31; 1,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 1,68</t>
+          <t>-4,24; 1,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,63; -2,1</t>
+          <t>-7,66; -2,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,11; -0,83</t>
+          <t>-9,08; -0,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 0,74</t>
+          <t>-3,12; 0,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,17; -1,74</t>
+          <t>-5,18; -1,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,74; -0,06</t>
+          <t>-5,58; -0,1</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,86; 12,43</t>
+          <t>-22,32; 10,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 1,61</t>
+          <t>-28,42; 1,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-34,8; 8,89</t>
+          <t>-36,34; 10,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 8,4</t>
+          <t>-18,61; 7,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,2; -10,3</t>
+          <t>-33,31; -10,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,21; -4,14</t>
+          <t>-40,78; -1,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 4,43</t>
+          <t>-16,62; 4,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,93; -10,37</t>
+          <t>-27,83; -10,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-30,71; -0,44</t>
+          <t>-30,27; -0,85</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 3,15</t>
+          <t>-6,82; 2,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 0,66</t>
+          <t>-7,81; 0,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 5,25</t>
+          <t>-3,63; 4,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,86; -1,91</t>
+          <t>-13,53; -2,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,49; -4,77</t>
+          <t>-15,47; -5,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,81; -0,84</t>
+          <t>-10,79; -1,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,9; -0,81</t>
+          <t>-7,87; -0,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,12; -3,29</t>
+          <t>-10,22; -3,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 1,11</t>
+          <t>-5,65; 0,87</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,8; 24,22</t>
+          <t>-38,24; 18,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,12; 5,36</t>
+          <t>-44,46; 3,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 39,35</t>
+          <t>-20,54; 36,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-47,59; -9,05</t>
+          <t>-48,36; -10,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,56; -22,24</t>
+          <t>-55,75; -23,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,1; -3,11</t>
+          <t>-38,2; -4,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,47; -4,2</t>
+          <t>-37,25; -4,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,02; -18,5</t>
+          <t>-47,38; -18,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 5,95</t>
+          <t>-25,92; 4,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,15; -0,18</t>
+          <t>-4,23; -0,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,77; -2,08</t>
+          <t>-5,92; -2,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,17; -1,6</t>
+          <t>-7,12; -1,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,58; -2,05</t>
+          <t>-6,55; -2,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,42; -5,15</t>
+          <t>-9,5; -5,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,99; -5,73</t>
+          <t>-12,38; -5,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,61; -1,57</t>
+          <t>-4,62; -1,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,04; -4,18</t>
+          <t>-6,99; -4,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,63; -4,1</t>
+          <t>-8,41; -4,18</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,3; -0,95</t>
+          <t>-20,36; -1,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,28; -11,12</t>
+          <t>-28,69; -10,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-37,25; -8,76</t>
+          <t>-36,25; -7,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,16; -6,93</t>
+          <t>-21,46; -7,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,86; -18,22</t>
+          <t>-30,9; -18,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-39,65; -19,86</t>
+          <t>-42,62; -19,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,23; -6,7</t>
+          <t>-18,19; -6,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,51; -17,34</t>
+          <t>-27,69; -17,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-34,51; -17,35</t>
+          <t>-33,82; -17,43</t>
         </is>
       </c>
     </row>
